--- a/state_scenarios_for_import.xlsx
+++ b/state_scenarios_for_import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daltonstewart/Dropbox/Stewart-Guest_Shared/Code/Biorefinery-Tax-Incentives/incentives/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0646E4-20AF-9841-A469-72CD771103EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74069ED-0B0F-FD49-96BC-48FB405C8C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{163DA801-9318-4945-BD14-C5631C7A2B18}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{163DA801-9318-4945-BD14-C5631C7A2B18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>State</t>
   </si>
@@ -230,6 +230,15 @@
   </si>
   <si>
     <t>Electricity GWP-100 (kg CO2-eq/kWh)</t>
+  </si>
+  <si>
+    <t>CS Price (USD/kg)</t>
+  </si>
+  <si>
+    <t>SC Price (USD/kg)</t>
+  </si>
+  <si>
+    <t>CN Price (USD/kg)</t>
   </si>
 </sst>
 </file>
@@ -610,15 +619,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0865C41F-F8C1-F743-9CC7-E8990FCDD1B0}">
-  <dimension ref="A1:P119"/>
+  <dimension ref="A1:Q119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -652,11 +661,20 @@
       <c r="K1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="5"/>
+      <c r="L1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q1" s="5"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -687,8 +705,12 @@
       <c r="K2" s="4">
         <v>0.48249069999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -716,11 +738,13 @@
       <c r="K3" s="4">
         <v>0.50515179999999993</v>
       </c>
-      <c r="N3" s="5"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -748,11 +772,13 @@
       <c r="K4" s="4">
         <v>0.65622580000000008</v>
       </c>
-      <c r="N4" s="5"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -780,11 +806,15 @@
       <c r="K5" s="4">
         <v>0.48249069999999999</v>
       </c>
-      <c r="N5" s="5"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4">
+        <v>0.1</v>
+      </c>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -812,11 +842,15 @@
       <c r="K6" s="4">
         <v>0.61090359999999999</v>
       </c>
-      <c r="N6" s="5"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4">
+        <v>9.9000000000000005E-2</v>
+      </c>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -847,11 +881,15 @@
       <c r="K7" s="4">
         <v>0.63356469999999998</v>
       </c>
-      <c r="N7" s="5"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4">
+        <v>0.10100000000000001</v>
+      </c>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -879,11 +917,13 @@
       <c r="K8" s="4">
         <v>0.4673833</v>
       </c>
-      <c r="N8" s="5"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -911,11 +951,15 @@
       <c r="K9" s="4">
         <v>0.4673833</v>
       </c>
-      <c r="N9" s="5"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4">
+        <v>0.107</v>
+      </c>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -943,11 +987,18 @@
       <c r="K10" s="4">
         <v>0.474937</v>
       </c>
-      <c r="N10" s="5"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="N10" s="4">
+        <v>4.0454826894677567E-2</v>
+      </c>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -975,11 +1026,15 @@
       <c r="K11" s="4">
         <v>0.474937</v>
       </c>
-      <c r="N11" s="5"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4">
+        <v>0.1</v>
+      </c>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1010,11 +1065,16 @@
       <c r="K12" s="4">
         <v>0.50515179999999993</v>
       </c>
-      <c r="N12" s="5"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4">
+        <v>4.4864072332789565E-2</v>
+      </c>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="5"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1042,11 +1102,13 @@
       <c r="K13" s="4">
         <v>0.55802770000000002</v>
       </c>
-      <c r="N13" s="5"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="5"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1074,11 +1136,15 @@
       <c r="K14" s="4">
         <v>0.55802770000000002</v>
       </c>
-      <c r="N14" s="5"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4">
+        <v>9.9000000000000005E-2</v>
+      </c>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1106,11 +1172,15 @@
       <c r="K15" s="4">
         <v>0.57313510000000001</v>
       </c>
-      <c r="N15" s="5"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4">
+        <v>0.1</v>
+      </c>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="5"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1141,11 +1211,15 @@
       <c r="K16" s="4">
         <v>0.56558140000000001</v>
       </c>
-      <c r="N16" s="5"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4">
+        <v>9.8000000000000004E-2</v>
+      </c>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="5"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1176,11 +1250,15 @@
       <c r="K17" s="4">
         <v>0.67133320000000007</v>
       </c>
-      <c r="N17" s="5"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4">
+        <v>9.2999999999999999E-2</v>
+      </c>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="5"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1211,11 +1289,15 @@
       <c r="K18" s="4">
         <v>0.49004439999999999</v>
       </c>
-      <c r="N18" s="5"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4">
+        <v>9.5000000000000001E-2</v>
+      </c>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="5"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1246,11 +1328,18 @@
       <c r="K19" s="4">
         <v>0.474937</v>
       </c>
-      <c r="N19" s="5"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="N19" s="4">
+        <v>4.6407308236128764E-2</v>
+      </c>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="5"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1278,11 +1367,13 @@
       <c r="K20" s="4">
         <v>0.4673833</v>
       </c>
-      <c r="N20" s="5"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="5"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1310,11 +1401,15 @@
       <c r="K21" s="4">
         <v>0.4673833</v>
       </c>
-      <c r="N21" s="5"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4">
+        <v>9.8000000000000004E-2</v>
+      </c>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="5"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1342,11 +1437,13 @@
       <c r="K22" s="4">
         <v>0.474937</v>
       </c>
-      <c r="N22" s="5"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="5"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1377,11 +1474,15 @@
       <c r="K23" s="4">
         <v>0.50515179999999993</v>
       </c>
-      <c r="N23" s="5"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4">
+        <v>0.10299999999999999</v>
+      </c>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="5"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1409,11 +1510,15 @@
       <c r="K24" s="4">
         <v>0.52781290000000003</v>
       </c>
-      <c r="N24" s="5"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4">
+        <v>9.6000000000000002E-2</v>
+      </c>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="5"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1441,11 +1546,15 @@
       <c r="K25" s="4">
         <v>0.53536660000000003</v>
       </c>
-      <c r="N25" s="5"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4">
+        <v>9.6000000000000002E-2</v>
+      </c>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="5"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1473,11 +1582,15 @@
       <c r="K26" s="4">
         <v>0.57313510000000001</v>
       </c>
-      <c r="N26" s="5"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4">
+        <v>9.0999999999999998E-2</v>
+      </c>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="5"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1508,8 +1621,10 @@
       <c r="K27" s="4">
         <v>0.56558140000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1540,8 +1655,12 @@
       <c r="K28" s="4">
         <v>0.61090359999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L28" s="4"/>
+      <c r="M28" s="4">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1569,8 +1688,10 @@
       <c r="K29" s="4">
         <v>0.54292030000000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1598,8 +1719,10 @@
       <c r="K30" s="4">
         <v>0.4673833</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1627,8 +1750,12 @@
       <c r="K31" s="4">
         <v>0.4673833</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L31" s="4"/>
+      <c r="M31" s="4">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1659,8 +1786,10 @@
       <c r="K32" s="4">
         <v>0.64867209999999997</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1688,8 +1817,12 @@
       <c r="K33" s="4">
         <v>0.4673833</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="4"/>
+      <c r="M33" s="4">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1717,8 +1850,12 @@
       <c r="K34" s="4">
         <v>0.474937</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="4"/>
+      <c r="M34" s="4">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1746,8 +1883,12 @@
       <c r="K35" s="4">
         <v>0.56558140000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="4"/>
+      <c r="M35" s="4">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1775,8 +1916,12 @@
       <c r="K36" s="4">
         <v>0.4673833</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L36" s="4"/>
+      <c r="M36" s="4">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1804,8 +1949,12 @@
       <c r="K37" s="4">
         <v>0.5882425</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L37" s="4"/>
+      <c r="M37" s="4">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1836,8 +1985,10 @@
       <c r="K38" s="4">
         <v>0.54292030000000002</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1865,8 +2016,12 @@
       <c r="K39" s="4">
         <v>0.4673833</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="4"/>
+      <c r="M39" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1894,8 +2049,10 @@
       <c r="K40" s="4">
         <v>0.4673833</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1926,8 +2083,12 @@
       <c r="K41" s="4">
         <v>0.474937</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="4"/>
+      <c r="M41" s="4">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1955,8 +2116,12 @@
       <c r="K42" s="4">
         <v>0.55047400000000002</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="4"/>
+      <c r="M42" s="4">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1984,8 +2149,12 @@
       <c r="K43" s="4">
         <v>0.4673833</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="4"/>
+      <c r="M43" s="4">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2013,8 +2182,15 @@
       <c r="K44" s="4">
         <v>0.52781290000000003</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="4"/>
+      <c r="M44" s="4">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="N44" s="4">
+        <v>2.1495071510795983E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2045,8 +2221,10 @@
       <c r="K45" s="4">
         <v>0.51270550000000004</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2074,8 +2252,10 @@
       <c r="K46" s="4">
         <v>0.4673833</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2106,8 +2286,12 @@
       <c r="K47" s="4">
         <v>0.48249069999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="4"/>
+      <c r="M47" s="4">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2135,8 +2319,10 @@
       <c r="K48" s="4">
         <v>0.56558140000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2164,8 +2350,12 @@
       <c r="K49" s="4">
         <v>0.4673833</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="4"/>
+      <c r="M49" s="4">
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2193,8 +2383,12 @@
       <c r="K50" s="4">
         <v>0.56558140000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="4"/>
+      <c r="M50" s="4">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -2222,16 +2416,17 @@
       <c r="K51" s="4">
         <v>0.48249069999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="4"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F54" s="3"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -2388,8 +2583,8 @@
       <c r="B119" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N3:P26">
-    <sortCondition ref="P3:P26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O3:Q26">
+    <sortCondition ref="Q3:Q26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/state_scenarios_for_import.xlsx
+++ b/state_scenarios_for_import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daltonstewart/Dropbox/Stewart-Guest_Shared/Code/Biorefinery-Tax-Incentives/incentives/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daltonstewart/Dropbox/Stewart-Guest_Shared/Code/BioLocE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74069ED-0B0F-FD49-96BC-48FB405C8C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22A909E-8BEA-FD4B-AA27-C12E79025F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{163DA801-9318-4945-BD14-C5631C7A2B18}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{163DA801-9318-4945-BD14-C5631C7A2B18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>State</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t>Property Tax Rate (decimal)</t>
-  </si>
-  <si>
-    <t>Feedstock Prices</t>
   </si>
   <si>
     <t>Location Capital Cost Factor (dimensionless)</t>
@@ -619,15 +616,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0865C41F-F8C1-F743-9CC7-E8990FCDD1B0}">
-  <dimension ref="A1:Q119"/>
+  <dimension ref="A1:P119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -638,10 +636,10 @@
         <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>52</v>
@@ -653,28 +651,25 @@
         <v>55</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="N1" s="5"/>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -693,24 +688,26 @@
       <c r="F2" s="3">
         <v>6.0100000000000001E-2</v>
       </c>
-      <c r="H2" s="4">
+      <c r="G2" s="4">
         <v>0.82354978354978503</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" s="6">
+      <c r="H2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="6">
         <v>0.46</v>
       </c>
+      <c r="J2" s="4">
+        <v>0.48249069999999999</v>
+      </c>
       <c r="K2" s="4">
-        <v>0.48249069999999999</v>
-      </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4">
+        <v>0.14291338582677166</v>
+      </c>
+      <c r="L2" s="4">
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -729,22 +726,22 @@
       <c r="F3" s="3">
         <v>0.17100000000000001</v>
       </c>
-      <c r="H3" s="4">
+      <c r="G3" s="4">
         <v>2.5634722222222202</v>
       </c>
-      <c r="J3">
+      <c r="I3">
         <v>0.57999999999999996</v>
       </c>
-      <c r="K3" s="4">
+      <c r="J3" s="4">
         <v>0.50515179999999993</v>
       </c>
+      <c r="K3" s="4"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -763,22 +760,26 @@
       <c r="F4" s="3">
         <v>6.5500000000000003E-2</v>
       </c>
-      <c r="H4" s="4">
+      <c r="G4" s="4">
         <v>0.95596153846153598</v>
       </c>
-      <c r="J4">
+      <c r="I4">
         <v>0.36</v>
       </c>
+      <c r="J4" s="4">
+        <v>0.65622580000000008</v>
+      </c>
       <c r="K4" s="4">
-        <v>0.65622580000000008</v>
-      </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
+        <v>0.18622047244094492</v>
+      </c>
+      <c r="L4" s="4">
+        <v>9.8651913243245778E-2</v>
+      </c>
+      <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -797,24 +798,26 @@
       <c r="F5" s="3">
         <v>5.6399999999999999E-2</v>
       </c>
-      <c r="H5" s="4">
+      <c r="G5" s="4">
         <v>0.85480952380952302</v>
       </c>
-      <c r="J5">
+      <c r="I5">
         <v>0.66</v>
       </c>
+      <c r="J5" s="4">
+        <v>0.48249069999999999</v>
+      </c>
       <c r="K5" s="4">
-        <v>0.48249069999999999</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4">
+        <v>0.14527559055118111</v>
+      </c>
+      <c r="L5" s="4">
         <v>0.1</v>
       </c>
+      <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -833,24 +836,26 @@
       <c r="F6" s="3">
         <v>0.13200000000000001</v>
       </c>
-      <c r="H6" s="4">
+      <c r="G6" s="4">
         <v>1.0981586402266199</v>
       </c>
-      <c r="J6">
+      <c r="I6">
         <v>0.22</v>
       </c>
+      <c r="J6" s="4">
+        <v>0.61090359999999999</v>
+      </c>
       <c r="K6" s="4">
-        <v>0.61090359999999999</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4">
+        <v>0.1846456692913386</v>
+      </c>
+      <c r="L6" s="4">
         <v>9.9000000000000005E-2</v>
       </c>
+      <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -869,27 +874,29 @@
       <c r="F7" s="3">
         <v>7.4700000000000003E-2</v>
       </c>
-      <c r="H7" s="4">
+      <c r="G7" s="4">
         <v>0.99910614525139696</v>
       </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
       <c r="I7">
-        <v>10</v>
-      </c>
-      <c r="J7">
         <v>0.36</v>
       </c>
+      <c r="J7" s="4">
+        <v>0.63356469999999998</v>
+      </c>
       <c r="K7" s="4">
-        <v>0.63356469999999998</v>
-      </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4">
+        <v>0.13464566929133859</v>
+      </c>
+      <c r="L7" s="4">
         <v>0.10100000000000001</v>
       </c>
+      <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -908,22 +915,22 @@
       <c r="F8" s="3">
         <v>0.13769999999999999</v>
       </c>
-      <c r="H8" s="4">
+      <c r="G8" s="4">
         <v>1.11506849315068</v>
       </c>
-      <c r="J8">
+      <c r="I8">
         <v>0.26</v>
       </c>
-      <c r="K8" s="4">
+      <c r="J8" s="4">
         <v>0.4673833</v>
       </c>
+      <c r="K8" s="4"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
+      <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -942,24 +949,26 @@
       <c r="F9" s="3">
         <v>7.9500000000000001E-2</v>
       </c>
-      <c r="H9" s="4">
+      <c r="G9" s="4">
         <v>1.04588235294117</v>
       </c>
-      <c r="J9">
+      <c r="I9">
         <v>0.47</v>
       </c>
+      <c r="J9" s="4">
+        <v>0.4673833</v>
+      </c>
       <c r="K9" s="4">
-        <v>0.4673833</v>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4">
+        <v>0.1610236220472441</v>
+      </c>
+      <c r="L9" s="4">
         <v>0.107</v>
       </c>
+      <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -978,27 +987,29 @@
       <c r="F10" s="3">
         <v>7.6499999999999999E-2</v>
       </c>
-      <c r="H10" s="4">
+      <c r="G10" s="4">
         <v>0.82572104018912895</v>
       </c>
+      <c r="I10" s="4">
+        <v>0.5</v>
+      </c>
       <c r="J10" s="4">
-        <v>0.5</v>
+        <v>0.474937</v>
       </c>
       <c r="K10" s="4">
-        <v>0.474937</v>
-      </c>
-      <c r="L10" s="4"/>
+        <v>0.15472440944881891</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0.10100000000000001</v>
+      </c>
       <c r="M10" s="4">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="N10" s="4">
         <v>4.0454826894677567E-2</v>
       </c>
+      <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1017,24 +1028,26 @@
       <c r="F11" s="3">
         <v>0.06</v>
       </c>
-      <c r="H11" s="4">
+      <c r="G11" s="4">
         <v>0.90413502109704202</v>
       </c>
-      <c r="J11">
+      <c r="I11">
         <v>0.46</v>
       </c>
+      <c r="J11" s="4">
+        <v>0.474937</v>
+      </c>
       <c r="K11" s="4">
-        <v>0.474937</v>
-      </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4">
+        <v>0.15275590551181104</v>
+      </c>
+      <c r="L11" s="4">
         <v>0.1</v>
       </c>
+      <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1053,28 +1066,28 @@
       <c r="F12" s="3">
         <v>0.26100000000000001</v>
       </c>
-      <c r="H12" s="4">
+      <c r="G12" s="4">
         <v>2.4517088607594899</v>
       </c>
-      <c r="I12">
+      <c r="H12">
         <v>11</v>
       </c>
+      <c r="I12" s="4">
+        <v>0.9</v>
+      </c>
       <c r="J12" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="K12" s="4">
         <v>0.50515179999999993</v>
       </c>
+      <c r="K12" s="4"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4">
+      <c r="M12" s="4">
         <v>4.4864072332789565E-2</v>
       </c>
+      <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1093,22 +1106,26 @@
       <c r="F13" s="3">
         <v>6.4699999999999994E-2</v>
       </c>
-      <c r="H13" s="4">
+      <c r="G13" s="4">
         <v>1.0685826771653499</v>
       </c>
-      <c r="J13">
+      <c r="I13">
         <v>0.36</v>
       </c>
+      <c r="J13" s="4">
+        <v>0.55802770000000002</v>
+      </c>
       <c r="K13" s="4">
-        <v>0.55802770000000002</v>
-      </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+        <v>0.17480314960629922</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0.10087370618133218</v>
+      </c>
+      <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1127,24 +1144,26 @@
       <c r="F14" s="3">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="H14" s="4">
+      <c r="G14" s="4">
         <v>1</v>
       </c>
-      <c r="J14">
+      <c r="I14">
         <v>0.66</v>
       </c>
+      <c r="J14" s="4">
+        <v>0.55802770000000002</v>
+      </c>
       <c r="K14" s="4">
-        <v>0.55802770000000002</v>
-      </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4">
+        <v>0.13503937007874017</v>
+      </c>
+      <c r="L14" s="4">
         <v>9.9000000000000005E-2</v>
       </c>
+      <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1163,24 +1182,26 @@
       <c r="F15" s="3">
         <v>7.3800000000000004E-2</v>
       </c>
-      <c r="H15" s="4">
+      <c r="G15" s="4">
         <v>0.921747311827955</v>
       </c>
-      <c r="J15">
+      <c r="I15">
         <v>0.66</v>
       </c>
+      <c r="J15" s="4">
+        <v>0.57313510000000001</v>
+      </c>
       <c r="K15" s="4">
-        <v>0.57313510000000001</v>
-      </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4">
+        <v>0.14291338582677166</v>
+      </c>
+      <c r="L15" s="4">
         <v>0.1</v>
       </c>
+      <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1199,27 +1220,29 @@
       <c r="F16" s="3">
         <v>6.4500000000000002E-2</v>
       </c>
-      <c r="H16" s="4">
+      <c r="G16" s="4">
         <v>1.05122881355932</v>
       </c>
-      <c r="I16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" s="6">
+      <c r="H16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="6">
         <v>0.66</v>
       </c>
+      <c r="J16" s="4">
+        <v>0.56558140000000001</v>
+      </c>
       <c r="K16" s="4">
-        <v>0.56558140000000001</v>
-      </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4">
+        <v>0.12992125984251968</v>
+      </c>
+      <c r="L16" s="4">
         <v>9.8000000000000004E-2</v>
       </c>
+      <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1238,27 +1261,29 @@
       <c r="F17" s="3">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="H17" s="4">
+      <c r="G17" s="4">
         <v>1.02352459016393</v>
       </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
       <c r="I17">
-        <v>2</v>
-      </c>
-      <c r="J17">
         <v>0.55000000000000004</v>
       </c>
+      <c r="J17" s="4">
+        <v>0.67133320000000007</v>
+      </c>
       <c r="K17" s="4">
-        <v>0.67133320000000007</v>
-      </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4">
+        <v>0.12598425196850396</v>
+      </c>
+      <c r="L17" s="4">
         <v>9.2999999999999999E-2</v>
       </c>
+      <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1277,27 +1302,29 @@
       <c r="F18" s="3">
         <v>5.6800000000000003E-2</v>
       </c>
-      <c r="H18" s="4">
+      <c r="G18" s="4">
         <v>0.874117647058822</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J18" s="7">
+      <c r="H18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="7">
         <v>0.46499999999999997</v>
       </c>
+      <c r="J18" s="4">
+        <v>0.49004439999999999</v>
+      </c>
       <c r="K18" s="4">
-        <v>0.49004439999999999</v>
-      </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4">
+        <v>0.14724409448818898</v>
+      </c>
+      <c r="L18" s="4">
         <v>9.5000000000000001E-2</v>
       </c>
+      <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1316,30 +1343,32 @@
       <c r="F19" s="3">
         <v>5.3499999999999999E-2</v>
       </c>
-      <c r="H19" s="4">
+      <c r="G19" s="4">
         <v>0.847694805194804</v>
       </c>
-      <c r="I19">
+      <c r="H19">
         <v>15</v>
       </c>
+      <c r="I19" s="4">
+        <v>0.55666666666666675</v>
+      </c>
       <c r="J19" s="4">
-        <v>0.55666666666666675</v>
+        <v>0.474937</v>
       </c>
       <c r="K19" s="4">
-        <v>0.474937</v>
-      </c>
-      <c r="L19" s="4"/>
+        <v>0.1456692913385827</v>
+      </c>
+      <c r="L19" s="4">
+        <v>9.9000000000000005E-2</v>
+      </c>
       <c r="M19" s="4">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="N19" s="4">
         <v>4.6407308236128764E-2</v>
       </c>
+      <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1358,22 +1387,22 @@
       <c r="F20" s="3">
         <v>9.3200000000000005E-2</v>
       </c>
-      <c r="H20" s="4">
+      <c r="G20" s="4">
         <v>1.0423026315789401</v>
       </c>
-      <c r="J20">
+      <c r="I20">
         <v>0.26</v>
       </c>
-      <c r="K20" s="4">
+      <c r="J20" s="4">
         <v>0.4673833</v>
       </c>
+      <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
+      <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1392,24 +1421,26 @@
       <c r="F21" s="3">
         <v>8.2299999999999998E-2</v>
       </c>
-      <c r="H21" s="4">
+      <c r="G21" s="4">
         <v>0.98325966850828705</v>
       </c>
-      <c r="J21">
+      <c r="I21">
         <v>0.47</v>
       </c>
+      <c r="J21" s="4">
+        <v>0.4673833</v>
+      </c>
       <c r="K21" s="4">
-        <v>0.4673833</v>
-      </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4">
+        <v>0.15944881889763779</v>
+      </c>
+      <c r="L21" s="4">
         <v>9.8000000000000004E-2</v>
       </c>
+      <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1428,22 +1459,22 @@
       <c r="F22" s="3">
         <v>0.1489</v>
       </c>
-      <c r="H22" s="4">
+      <c r="G22" s="4">
         <v>1.17718954248365</v>
       </c>
-      <c r="J22">
+      <c r="I22">
         <v>0.26</v>
       </c>
-      <c r="K22" s="4">
+      <c r="J22" s="4">
         <v>0.474937</v>
       </c>
+      <c r="K22" s="4"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
+      <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1462,27 +1493,29 @@
       <c r="F23" s="3">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="H23" s="4">
+      <c r="G23" s="4">
         <v>1.03088372093023</v>
       </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
       <c r="I23">
-        <v>3</v>
-      </c>
-      <c r="J23">
         <v>0.66</v>
       </c>
+      <c r="J23" s="4">
+        <v>0.50515179999999993</v>
+      </c>
       <c r="K23" s="4">
-        <v>0.50515179999999993</v>
-      </c>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4">
+        <v>0.13543307086614173</v>
+      </c>
+      <c r="L23" s="4">
         <v>0.10299999999999999</v>
       </c>
+      <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1501,24 +1534,26 @@
       <c r="F24" s="3">
         <v>7.5200000000000003E-2</v>
       </c>
-      <c r="H24" s="4">
+      <c r="G24" s="4">
         <v>1.0664848484848399</v>
       </c>
-      <c r="J24">
+      <c r="I24">
         <v>0.66</v>
       </c>
+      <c r="J24" s="4">
+        <v>0.52781290000000003</v>
+      </c>
       <c r="K24" s="4">
-        <v>0.52781290000000003</v>
-      </c>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4">
+        <v>0.12637795275590552</v>
+      </c>
+      <c r="L24" s="4">
         <v>9.6000000000000002E-2</v>
       </c>
+      <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1537,24 +1572,26 @@
       <c r="F25" s="3">
         <v>0.06</v>
       </c>
-      <c r="H25" s="4">
+      <c r="G25" s="4">
         <v>0.91778925619834395</v>
       </c>
-      <c r="J25">
+      <c r="I25">
         <v>0.46</v>
       </c>
+      <c r="J25" s="4">
+        <v>0.53536660000000003</v>
+      </c>
       <c r="K25" s="4">
-        <v>0.53536660000000003</v>
-      </c>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4">
+        <v>0.14724409448818898</v>
+      </c>
+      <c r="L25" s="4">
         <v>9.6000000000000002E-2</v>
       </c>
+      <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1573,24 +1610,26 @@
       <c r="F26" s="3">
         <v>7.22E-2</v>
       </c>
-      <c r="H26" s="4">
+      <c r="G26" s="4">
         <v>1.01294685990338</v>
       </c>
+      <c r="I26" s="4">
+        <v>0.55666666666666675</v>
+      </c>
       <c r="J26" s="4">
-        <v>0.55666666666666675</v>
+        <v>0.57313510000000001</v>
       </c>
       <c r="K26" s="4">
-        <v>0.57313510000000001</v>
-      </c>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4">
+        <v>0.13385826771653545</v>
+      </c>
+      <c r="L26" s="4">
         <v>9.0999999999999998E-2</v>
       </c>
+      <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1609,22 +1648,26 @@
       <c r="F27" s="3">
         <v>5.1900000000000002E-2</v>
       </c>
-      <c r="H27" s="4">
+      <c r="G27" s="4">
         <v>1.12787581699346</v>
       </c>
-      <c r="I27" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J27" s="6">
+      <c r="H27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27" s="6">
         <v>0.36</v>
       </c>
+      <c r="J27" s="4">
+        <v>0.56558140000000001</v>
+      </c>
       <c r="K27" s="4">
-        <v>0.56558140000000001</v>
-      </c>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0.16338582677165356</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0.10154192194819864</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1643,24 +1686,26 @@
       <c r="F28" s="3">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="H28" s="4">
+      <c r="G28" s="4">
         <v>0.93129411764706205</v>
       </c>
-      <c r="I28">
+      <c r="H28">
         <v>5</v>
       </c>
+      <c r="I28" s="4">
+        <v>0.60499999999999998</v>
+      </c>
       <c r="J28" s="4">
-        <v>0.60499999999999998</v>
+        <v>0.61090359999999999</v>
       </c>
       <c r="K28" s="4">
-        <v>0.61090359999999999</v>
-      </c>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4">
+        <v>0.13070866141732285</v>
+      </c>
+      <c r="L28" s="4">
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1679,19 +1724,19 @@
       <c r="F29" s="3">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="H29" s="4">
+      <c r="G29" s="4">
         <v>1.2103846153846101</v>
       </c>
-      <c r="J29">
+      <c r="I29">
         <v>0.36</v>
       </c>
-      <c r="K29" s="4">
+      <c r="J29" s="4">
         <v>0.54292030000000002</v>
       </c>
+      <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1710,19 +1755,19 @@
       <c r="F30" s="3">
         <v>0.13420000000000001</v>
       </c>
-      <c r="H30" s="4">
+      <c r="G30" s="4">
         <v>1.0900000000000001</v>
       </c>
-      <c r="J30">
+      <c r="I30">
         <v>0.26</v>
       </c>
-      <c r="K30" s="4">
+      <c r="J30" s="4">
         <v>0.4673833</v>
       </c>
+      <c r="K30" s="4"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1741,21 +1786,23 @@
       <c r="F31" s="3">
         <v>0.1007</v>
       </c>
-      <c r="H31" s="4">
+      <c r="G31" s="4">
         <v>1.21164062499999</v>
       </c>
-      <c r="J31">
+      <c r="I31">
         <v>0.47</v>
       </c>
+      <c r="J31" s="4">
+        <v>0.4673833</v>
+      </c>
       <c r="K31" s="4">
-        <v>0.4673833</v>
-      </c>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4">
+        <v>0.15354330708661418</v>
+      </c>
+      <c r="L31" s="4">
         <v>0.108</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1774,22 +1821,26 @@
       <c r="F32" s="3">
         <v>5.8400000000000001E-2</v>
       </c>
-      <c r="H32" s="4">
+      <c r="G32" s="4">
         <v>0.97622641509433805</v>
       </c>
+      <c r="H32">
+        <v>7</v>
+      </c>
       <c r="I32">
-        <v>7</v>
-      </c>
-      <c r="J32">
         <v>0.36</v>
       </c>
+      <c r="J32" s="4">
+        <v>0.64867209999999997</v>
+      </c>
       <c r="K32" s="4">
-        <v>0.64867209999999997</v>
-      </c>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.15472440944881891</v>
+      </c>
+      <c r="L32" s="4">
+        <v>0.10101251037412776</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1808,21 +1859,23 @@
       <c r="F33" s="3">
         <v>6.0199999999999997E-2</v>
       </c>
-      <c r="H33" s="4">
+      <c r="G33" s="4">
         <v>1.1382673267326699</v>
       </c>
-      <c r="J33">
+      <c r="I33">
         <v>0.26</v>
       </c>
+      <c r="J33" s="4">
+        <v>0.4673833</v>
+      </c>
       <c r="K33" s="4">
-        <v>0.4673833</v>
-      </c>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4">
+        <v>0.15354330708661418</v>
+      </c>
+      <c r="L33" s="4">
         <v>0.104</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1841,21 +1894,23 @@
       <c r="F34" s="3">
         <v>6.3299999999999995E-2</v>
       </c>
-      <c r="H34" s="4">
+      <c r="G34" s="4">
         <v>0.884571428571434</v>
       </c>
-      <c r="J34">
+      <c r="I34">
         <v>0.46</v>
       </c>
+      <c r="J34" s="4">
+        <v>0.474937</v>
+      </c>
       <c r="K34" s="4">
-        <v>0.474937</v>
-      </c>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4">
+        <v>0.16023622047244096</v>
+      </c>
+      <c r="L34" s="4">
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1874,26 +1929,28 @@
       <c r="F35" s="3">
         <v>7.9799999999999996E-2</v>
       </c>
-      <c r="H35" s="4">
+      <c r="G35" s="4">
         <v>1.06910869565217</v>
       </c>
+      <c r="I35" s="4">
+        <v>0.60499999999999998</v>
+      </c>
       <c r="J35" s="4">
-        <v>0.60499999999999998</v>
+        <v>0.56558140000000001</v>
       </c>
       <c r="K35" s="4">
-        <v>0.56558140000000001</v>
-      </c>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4">
+        <v>0.11850393700787401</v>
+      </c>
+      <c r="L35" s="4">
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>0</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="C36" s="3">
         <v>1.7544000000000001E-2</v>
@@ -1907,21 +1964,23 @@
       <c r="F36" s="3">
         <v>7.0099999999999996E-2</v>
       </c>
-      <c r="H36" s="4">
+      <c r="G36" s="4">
         <v>0.93595617529880604</v>
       </c>
-      <c r="J36">
+      <c r="I36">
         <v>0.47</v>
       </c>
+      <c r="J36" s="4">
+        <v>0.4673833</v>
+      </c>
       <c r="K36" s="4">
-        <v>0.4673833</v>
-      </c>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4">
+        <v>0.14212598425196851</v>
+      </c>
+      <c r="L36" s="4">
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1940,21 +1999,23 @@
       <c r="F37" s="3">
         <v>5.3400000000000003E-2</v>
       </c>
-      <c r="H37" s="4">
+      <c r="G37" s="4">
         <v>0.87760000000000005</v>
       </c>
-      <c r="J37">
+      <c r="I37">
         <v>0.55000000000000004</v>
       </c>
+      <c r="J37" s="4">
+        <v>0.5882425</v>
+      </c>
       <c r="K37" s="4">
-        <v>0.5882425</v>
-      </c>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4">
+        <v>0.13346456692913386</v>
+      </c>
+      <c r="L37" s="4">
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1973,22 +2034,26 @@
       <c r="F38" s="3">
         <v>5.8599999999999999E-2</v>
       </c>
-      <c r="H38" s="4">
+      <c r="G38" s="4">
         <v>1.1080630630630599</v>
       </c>
+      <c r="H38">
+        <v>6</v>
+      </c>
       <c r="I38">
-        <v>6</v>
-      </c>
-      <c r="J38">
         <v>0.36</v>
       </c>
+      <c r="J38" s="4">
+        <v>0.54292030000000002</v>
+      </c>
       <c r="K38" s="4">
-        <v>0.54292030000000002</v>
-      </c>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.1673228346456693</v>
+      </c>
+      <c r="L38" s="4">
+        <v>0.10148699597777602</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2007,21 +2072,23 @@
       <c r="F39" s="3">
         <v>6.8400000000000002E-2</v>
       </c>
-      <c r="H39" s="4">
+      <c r="G39" s="4">
         <v>1.07753164556962</v>
       </c>
-      <c r="J39">
+      <c r="I39">
         <v>0.47</v>
       </c>
+      <c r="J39" s="4">
+        <v>0.4673833</v>
+      </c>
       <c r="K39" s="4">
-        <v>0.4673833</v>
-      </c>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4">
+        <v>0.15905511811023623</v>
+      </c>
+      <c r="L39" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2040,19 +2107,19 @@
       <c r="F40" s="3">
         <v>0.15390000000000001</v>
       </c>
-      <c r="H40" s="4">
+      <c r="G40" s="4">
         <v>1.12333333333333</v>
       </c>
-      <c r="J40">
+      <c r="I40">
         <v>0.26</v>
       </c>
-      <c r="K40" s="4">
+      <c r="J40" s="4">
         <v>0.4673833</v>
       </c>
+      <c r="K40" s="4"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2071,24 +2138,26 @@
       <c r="F41" s="3">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="H41" s="4">
+      <c r="G41" s="4">
         <v>0.93315508021390203</v>
       </c>
-      <c r="I41" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J41" s="6">
+      <c r="H41" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I41" s="6">
         <v>0.46</v>
       </c>
+      <c r="J41" s="4">
+        <v>0.474937</v>
+      </c>
       <c r="K41" s="4">
-        <v>0.474937</v>
-      </c>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4">
+        <v>0.14527559055118111</v>
+      </c>
+      <c r="L41" s="4">
         <v>0.104</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2107,21 +2176,23 @@
       <c r="F42" s="3">
         <v>7.7700000000000005E-2</v>
       </c>
-      <c r="H42" s="4">
+      <c r="G42" s="4">
         <v>0.99818750000000001</v>
       </c>
+      <c r="I42" s="4">
+        <v>0.60499999999999998</v>
+      </c>
       <c r="J42" s="4">
-        <v>0.60499999999999998</v>
+        <v>0.55047400000000002</v>
       </c>
       <c r="K42" s="4">
-        <v>0.55047400000000002</v>
-      </c>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4">
+        <v>0.12165354330708661</v>
+      </c>
+      <c r="L42" s="4">
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2140,26 +2211,28 @@
       <c r="F43" s="3">
         <v>5.6800000000000003E-2</v>
       </c>
-      <c r="H43" s="4">
+      <c r="G43" s="4">
         <v>0.85303763440860003</v>
       </c>
-      <c r="J43">
+      <c r="I43">
         <v>0.46</v>
       </c>
+      <c r="J43" s="4">
+        <v>0.4673833</v>
+      </c>
       <c r="K43" s="4">
-        <v>0.4673833</v>
-      </c>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4">
+        <v>0.14409448818897638</v>
+      </c>
+      <c r="L43" s="4">
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="2">
-        <v>0</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C44" s="3">
         <v>2.2082000000000001E-2</v>
@@ -2173,24 +2246,26 @@
       <c r="F44" s="3">
         <v>5.3900000000000003E-2</v>
       </c>
-      <c r="H44" s="4">
+      <c r="G44" s="4">
         <v>0.90491631799163097</v>
       </c>
-      <c r="J44">
+      <c r="I44">
         <v>0.47</v>
       </c>
+      <c r="J44" s="4">
+        <v>0.52781290000000003</v>
+      </c>
       <c r="K44" s="4">
-        <v>0.52781290000000003</v>
-      </c>
-      <c r="L44" s="4"/>
+        <v>0.14606299212598425</v>
+      </c>
+      <c r="L44" s="4">
+        <v>9.6000000000000002E-2</v>
+      </c>
       <c r="M44" s="4">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="N44" s="4">
         <v>2.1495071510795983E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2209,22 +2284,26 @@
       <c r="F45" s="3">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="H45" s="4">
+      <c r="G45" s="4">
         <v>1.07424778761061</v>
       </c>
+      <c r="H45">
+        <v>18</v>
+      </c>
       <c r="I45">
-        <v>18</v>
-      </c>
-      <c r="J45">
         <v>0.36</v>
       </c>
+      <c r="J45" s="4">
+        <v>0.51270550000000004</v>
+      </c>
       <c r="K45" s="4">
-        <v>0.51270550000000004</v>
-      </c>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.15236220472440945</v>
+      </c>
+      <c r="L45" s="4">
+        <v>0.10071295241200602</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2243,19 +2322,19 @@
       <c r="F46" s="3">
         <v>0.1066</v>
       </c>
-      <c r="H46" s="4">
+      <c r="G46" s="4">
         <v>1.06</v>
       </c>
-      <c r="J46">
+      <c r="I46">
         <v>0.26</v>
       </c>
-      <c r="K46" s="4">
+      <c r="J46" s="4">
         <v>0.4673833</v>
       </c>
+      <c r="K46" s="4"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2274,24 +2353,26 @@
       <c r="F47" s="3">
         <v>6.8599999999999994E-2</v>
       </c>
-      <c r="H47" s="4">
+      <c r="G47" s="4">
         <v>0.97886292834890798</v>
       </c>
+      <c r="H47">
+        <v>19</v>
+      </c>
       <c r="I47">
-        <v>19</v>
-      </c>
-      <c r="J47">
         <v>0.47</v>
       </c>
+      <c r="J47" s="4">
+        <v>0.48249069999999999</v>
+      </c>
       <c r="K47" s="4">
-        <v>0.48249069999999999</v>
-      </c>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4">
+        <v>0.15748031496062992</v>
+      </c>
+      <c r="L47" s="4">
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2310,19 +2391,23 @@
       <c r="F48" s="3">
         <v>4.7100000000000003E-2</v>
       </c>
-      <c r="H48" s="4">
+      <c r="G48" s="4">
         <v>1.1595070422535101</v>
       </c>
-      <c r="J48">
+      <c r="I48">
         <v>0.36</v>
       </c>
+      <c r="J48" s="4">
+        <v>0.56558140000000001</v>
+      </c>
       <c r="K48" s="4">
-        <v>0.56558140000000001</v>
-      </c>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.18543307086614175</v>
+      </c>
+      <c r="L48" s="4">
+        <v>9.8855017374080478E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2341,21 +2426,23 @@
       <c r="F49" s="3">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="H49" s="4">
+      <c r="G49" s="4">
         <v>1.00439999999999</v>
       </c>
-      <c r="J49">
+      <c r="I49">
         <v>0.47</v>
       </c>
+      <c r="J49" s="4">
+        <v>0.4673833</v>
+      </c>
       <c r="K49" s="4">
-        <v>0.4673833</v>
-      </c>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4">
+        <v>0.15354330708661418</v>
+      </c>
+      <c r="L49" s="4">
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2374,21 +2461,23 @@
       <c r="F50" s="3">
         <v>7.3300000000000004E-2</v>
       </c>
-      <c r="H50" s="4">
+      <c r="G50" s="4">
         <v>1.0709574468084999</v>
       </c>
-      <c r="J50">
+      <c r="I50">
         <v>0.66</v>
       </c>
+      <c r="J50" s="4">
+        <v>0.56558140000000001</v>
+      </c>
       <c r="K50" s="4">
-        <v>0.56558140000000001</v>
-      </c>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4">
+        <v>0.12913385826771653</v>
+      </c>
+      <c r="L50" s="4">
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -2407,26 +2496,31 @@
       <c r="F51" s="3">
         <v>6.7100000000000007E-2</v>
       </c>
-      <c r="H51" s="4">
+      <c r="G51" s="4">
         <v>1.0227906976744101</v>
       </c>
-      <c r="J51">
+      <c r="I51">
         <v>0.36</v>
       </c>
+      <c r="J51" s="4">
+        <v>0.48249069999999999</v>
+      </c>
       <c r="K51" s="4">
-        <v>0.48249069999999999</v>
-      </c>
-      <c r="L51" s="4"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.13346456692913386</v>
+      </c>
+      <c r="L51" s="4">
+        <v>9.5922391195530504E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F54" s="3"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -2583,8 +2677,8 @@
       <c r="B119" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O3:Q26">
-    <sortCondition ref="Q3:Q26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N3:P26">
+    <sortCondition ref="P3:P26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/state_scenarios_for_import.xlsx
+++ b/state_scenarios_for_import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daltonstewart/Dropbox/Stewart-Guest_Shared/Code/BioLocE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daltonwstewart/Documents/Code/BLocS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22A909E-8BEA-FD4B-AA27-C12E79025F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62D6A34-FB7D-4449-9F97-D02CD8EE565A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{163DA801-9318-4945-BD14-C5631C7A2B18}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{163DA801-9318-4945-BD14-C5631C7A2B18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>State</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>CN Price (USD/kg)</t>
+  </si>
+  <si>
+    <t>Natural Gas Price (USD/kg)</t>
   </si>
 </sst>
 </file>
@@ -616,16 +619,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0865C41F-F8C1-F743-9CC7-E8990FCDD1B0}">
-  <dimension ref="A1:P119"/>
+  <dimension ref="A1:Q119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="topRight" activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="16" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -645,31 +663,34 @@
         <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="5"/>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q1" s="5"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -689,25 +710,28 @@
         <v>6.0100000000000001E-2</v>
       </c>
       <c r="G2" s="4">
+        <v>0.19124797406807129</v>
+      </c>
+      <c r="H2" s="4">
         <v>0.82354978354978503</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="6">
+      <c r="J2" s="6">
         <v>0.46</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>0.48249069999999999</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>0.14291338582677166</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -727,21 +751,24 @@
         <v>0.17100000000000001</v>
       </c>
       <c r="G3" s="4">
+        <v>0.26094003241491082</v>
+      </c>
+      <c r="H3" s="4">
         <v>2.5634722222222202</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.57999999999999996</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>0.50515179999999993</v>
       </c>
-      <c r="K3" s="4"/>
       <c r="L3" s="4"/>
-      <c r="N3" s="5"/>
+      <c r="M3" s="4"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -761,25 +788,28 @@
         <v>6.5500000000000003E-2</v>
       </c>
       <c r="G4" s="4">
+        <v>0.21285791464073472</v>
+      </c>
+      <c r="H4" s="4">
         <v>0.95596153846153598</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.36</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>0.65622580000000008</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>0.18622047244094492</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
         <v>9.8651913243245778E-2</v>
       </c>
-      <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -799,25 +829,28 @@
         <v>5.6399999999999999E-2</v>
       </c>
       <c r="G5" s="4">
+        <v>0.33765532144786597</v>
+      </c>
+      <c r="H5" s="4">
         <v>0.85480952380952302</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.66</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>0.48249069999999999</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <v>0.14527559055118111</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
         <v>0.1</v>
       </c>
-      <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -837,25 +870,28 @@
         <v>0.13200000000000001</v>
       </c>
       <c r="G6" s="4">
+        <v>0.40788762830902209</v>
+      </c>
+      <c r="H6" s="4">
         <v>1.0981586402266199</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.22</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>0.61090359999999999</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>0.1846456692913386</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -875,28 +911,31 @@
         <v>7.4700000000000003E-2</v>
       </c>
       <c r="G7" s="4">
+        <v>0.26742301458670986</v>
+      </c>
+      <c r="H7" s="4">
         <v>0.99910614525139696</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>10</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.36</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>0.63356469999999998</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>0.13464566929133859</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
         <v>0.10100000000000001</v>
       </c>
-      <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -916,21 +955,24 @@
         <v>0.13769999999999999</v>
       </c>
       <c r="G8" s="4">
+        <v>0.33765532144786597</v>
+      </c>
+      <c r="H8" s="4">
         <v>1.11506849315068</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.26</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>0.4673833</v>
       </c>
-      <c r="K8" s="4"/>
       <c r="L8" s="4"/>
-      <c r="N8" s="5"/>
+      <c r="M8" s="4"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -950,25 +992,28 @@
         <v>7.9500000000000001E-2</v>
       </c>
       <c r="G9" s="4">
+        <v>0.58238789843327921</v>
+      </c>
+      <c r="H9" s="4">
         <v>1.04588235294117</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.47</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>0.4673833</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>0.1610236220472441</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
         <v>0.107</v>
       </c>
-      <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -988,28 +1033,31 @@
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="G10" s="4">
+        <v>0.29983792544570498</v>
+      </c>
+      <c r="H10" s="4">
         <v>0.82572104018912895</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>0.5</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>0.474937</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>0.15472440944881891</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
         <v>0.10100000000000001</v>
       </c>
-      <c r="M10" s="4">
+      <c r="N10" s="4">
         <v>4.0454826894677567E-2</v>
       </c>
-      <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1029,25 +1077,28 @@
         <v>0.06</v>
       </c>
       <c r="G11" s="4">
+        <v>0.20799567801188545</v>
+      </c>
+      <c r="H11" s="4">
         <v>0.90413502109704202</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.46</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>0.474937</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>0.15275590551181104</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
         <v>0.1</v>
       </c>
-      <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1067,27 +1118,30 @@
         <v>0.26100000000000001</v>
       </c>
       <c r="G12" s="4">
+        <v>1.1096704484062667</v>
+      </c>
+      <c r="H12" s="4">
         <v>2.4517088607594899</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>11</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>0.9</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>0.50515179999999993</v>
       </c>
-      <c r="K12" s="4"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="4">
+      <c r="M12" s="4"/>
+      <c r="N12" s="4">
         <v>4.4864072332789565E-2</v>
       </c>
-      <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="5"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1107,25 +1161,28 @@
         <v>6.4699999999999994E-2</v>
       </c>
       <c r="G13" s="4">
+        <v>0.19827120475418691</v>
+      </c>
+      <c r="H13" s="4">
         <v>1.0685826771653499</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.36</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>0.55802770000000002</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>0.17480314960629922</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
         <v>0.10087370618133218</v>
       </c>
-      <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="5"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1145,25 +1202,28 @@
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="G14" s="4">
+        <v>0.23014586709886545</v>
+      </c>
+      <c r="H14" s="4">
         <v>1</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.66</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>0.55802770000000002</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>0.13503937007874017</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1183,25 +1243,28 @@
         <v>7.3800000000000004E-2</v>
       </c>
       <c r="G15" s="4">
+        <v>0.29227444624527282</v>
+      </c>
+      <c r="H15" s="4">
         <v>0.921747311827955</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.66</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
         <v>0.57313510000000001</v>
       </c>
-      <c r="K15" s="4">
+      <c r="L15" s="4">
         <v>0.14291338582677166</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="4">
         <v>0.1</v>
       </c>
-      <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="5"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1221,28 +1284,31 @@
         <v>6.4500000000000002E-2</v>
       </c>
       <c r="G16" s="4">
+        <v>0.24203133441383037</v>
+      </c>
+      <c r="H16" s="4">
         <v>1.05122881355932</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="I16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="6">
+      <c r="J16" s="6">
         <v>0.66</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <v>0.56558140000000001</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L16" s="4">
         <v>0.12992125984251968</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="5"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1262,28 +1328,31 @@
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="G17" s="4">
+        <v>0.18260399783900591</v>
+      </c>
+      <c r="H17" s="4">
         <v>1.02352459016393</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>2</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>0.67133320000000007</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>0.12598425196850396</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="5"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1303,28 +1372,31 @@
         <v>5.6800000000000003E-2</v>
       </c>
       <c r="G18" s="4">
+        <v>0.18908698001080496</v>
+      </c>
+      <c r="H18" s="4">
         <v>0.874117647058822</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="I18" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I18" s="7">
+      <c r="J18" s="7">
         <v>0.46499999999999997</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>0.49004439999999999</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>0.14724409448818898</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="5"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1344,31 +1416,34 @@
         <v>5.3499999999999999E-2</v>
       </c>
       <c r="G19" s="4">
+        <v>0.13938411669367909</v>
+      </c>
+      <c r="H19" s="4">
         <v>0.847694805194804</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>15</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>0.55666666666666675</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>0.474937</v>
       </c>
-      <c r="K19" s="4">
+      <c r="L19" s="4">
         <v>0.1456692913385827</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="4">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="M19" s="4">
+      <c r="N19" s="4">
         <v>4.6407308236128764E-2</v>
       </c>
-      <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="5"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1388,21 +1463,24 @@
         <v>9.3200000000000005E-2</v>
       </c>
       <c r="G20" s="4">
+        <v>0.42409508373851967</v>
+      </c>
+      <c r="H20" s="4">
         <v>1.0423026315789401</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.26</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <v>0.4673833</v>
       </c>
-      <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="N20" s="5"/>
+      <c r="M20" s="4"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="5"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1422,25 +1500,28 @@
         <v>8.2299999999999998E-2</v>
       </c>
       <c r="G21" s="4">
+        <v>0.4781199351701782</v>
+      </c>
+      <c r="H21" s="4">
         <v>0.98325966850828705</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.47</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="4">
         <v>0.4673833</v>
       </c>
-      <c r="K21" s="4">
+      <c r="L21" s="4">
         <v>0.15944881889763779</v>
       </c>
-      <c r="L21" s="4">
+      <c r="M21" s="4">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="5"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1460,21 +1541,24 @@
         <v>0.1489</v>
       </c>
       <c r="G22" s="4">
+        <v>0.50243111831442466</v>
+      </c>
+      <c r="H22" s="4">
         <v>1.17718954248365</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.26</v>
       </c>
-      <c r="J22" s="4">
+      <c r="K22" s="4">
         <v>0.474937</v>
       </c>
-      <c r="K22" s="4"/>
       <c r="L22" s="4"/>
-      <c r="N22" s="5"/>
+      <c r="M22" s="4"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="5"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1494,28 +1578,31 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="G23" s="4">
+        <v>0.31604538087520256</v>
+      </c>
+      <c r="H23" s="4">
         <v>1.03088372093023</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>3</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.66</v>
       </c>
-      <c r="J23" s="4">
+      <c r="K23" s="4">
         <v>0.50515179999999993</v>
       </c>
-      <c r="K23" s="4">
+      <c r="L23" s="4">
         <v>0.13543307086614173</v>
       </c>
-      <c r="L23" s="4">
+      <c r="M23" s="4">
         <v>0.10299999999999999</v>
       </c>
-      <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="5"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1535,25 +1622,28 @@
         <v>7.5200000000000003E-2</v>
       </c>
       <c r="G24" s="4">
+        <v>0.21555915721231766</v>
+      </c>
+      <c r="H24" s="4">
         <v>1.0664848484848399</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>0.66</v>
       </c>
-      <c r="J24" s="4">
+      <c r="K24" s="4">
         <v>0.52781290000000003</v>
       </c>
-      <c r="K24" s="4">
+      <c r="L24" s="4">
         <v>0.12637795275590552</v>
       </c>
-      <c r="L24" s="4">
+      <c r="M24" s="4">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="5"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1573,25 +1663,28 @@
         <v>0.06</v>
       </c>
       <c r="G25" s="4">
+        <v>0.21988114532685035</v>
+      </c>
+      <c r="H25" s="4">
         <v>0.91778925619834395</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>0.46</v>
       </c>
-      <c r="J25" s="4">
+      <c r="K25" s="4">
         <v>0.53536660000000003</v>
       </c>
-      <c r="K25" s="4">
+      <c r="L25" s="4">
         <v>0.14724409448818898</v>
       </c>
-      <c r="L25" s="4">
+      <c r="M25" s="4">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="5"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1611,25 +1704,28 @@
         <v>7.22E-2</v>
       </c>
       <c r="G26" s="4">
+        <v>0.31172339276066985</v>
+      </c>
+      <c r="H26" s="4">
         <v>1.01294685990338</v>
       </c>
-      <c r="I26" s="4">
+      <c r="J26" s="4">
         <v>0.55666666666666675</v>
       </c>
-      <c r="J26" s="4">
+      <c r="K26" s="4">
         <v>0.57313510000000001</v>
       </c>
-      <c r="K26" s="4">
+      <c r="L26" s="4">
         <v>0.13385826771653545</v>
       </c>
-      <c r="L26" s="4">
+      <c r="M26" s="4">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="5"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1649,25 +1745,28 @@
         <v>5.1900000000000002E-2</v>
       </c>
       <c r="G27" s="4">
+        <v>0.32360886007563477</v>
+      </c>
+      <c r="H27" s="4">
         <v>1.12787581699346</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="I27" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I27" s="6">
+      <c r="J27" s="6">
         <v>0.36</v>
       </c>
-      <c r="J27" s="4">
+      <c r="K27" s="4">
         <v>0.56558140000000001</v>
       </c>
-      <c r="K27" s="4">
+      <c r="L27" s="4">
         <v>0.16338582677165356</v>
       </c>
-      <c r="L27" s="4">
+      <c r="M27" s="4">
         <v>0.10154192194819864</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1687,25 +1786,28 @@
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="G28" s="4">
+        <v>0.2096164235548352</v>
+      </c>
+      <c r="H28" s="4">
         <v>0.93129411764706205</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>5</v>
       </c>
-      <c r="I28" s="4">
+      <c r="J28" s="4">
         <v>0.60499999999999998</v>
       </c>
-      <c r="J28" s="4">
+      <c r="K28" s="4">
         <v>0.61090359999999999</v>
       </c>
-      <c r="K28" s="4">
+      <c r="L28" s="4">
         <v>0.13070866141732285</v>
       </c>
-      <c r="L28" s="4">
+      <c r="M28" s="4">
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1725,18 +1827,21 @@
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="G29" s="4">
+        <v>0.32414910858995133</v>
+      </c>
+      <c r="H29" s="4">
         <v>1.2103846153846101</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>0.36</v>
       </c>
-      <c r="J29" s="4">
+      <c r="K29" s="4">
         <v>0.54292030000000002</v>
       </c>
-      <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1756,18 +1861,21 @@
         <v>0.13420000000000001</v>
       </c>
       <c r="G30" s="4">
+        <v>0.45759049162614801</v>
+      </c>
+      <c r="H30" s="4">
         <v>1.0900000000000001</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>0.26</v>
       </c>
-      <c r="J30" s="4">
+      <c r="K30" s="4">
         <v>0.4673833</v>
       </c>
-      <c r="K30" s="4"/>
       <c r="L30" s="4"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1787,22 +1895,25 @@
         <v>0.1007</v>
       </c>
       <c r="G31" s="4">
+        <v>0.40734737979470553</v>
+      </c>
+      <c r="H31" s="4">
         <v>1.21164062499999</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>0.47</v>
       </c>
-      <c r="J31" s="4">
+      <c r="K31" s="4">
         <v>0.4673833</v>
       </c>
-      <c r="K31" s="4">
+      <c r="L31" s="4">
         <v>0.15354330708661418</v>
       </c>
-      <c r="L31" s="4">
+      <c r="M31" s="4">
         <v>0.108</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1822,25 +1933,28 @@
         <v>5.8400000000000001E-2</v>
       </c>
       <c r="G32" s="4">
+        <v>0.16531604538087519</v>
+      </c>
+      <c r="H32" s="4">
         <v>0.97622641509433805</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>7</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>0.36</v>
       </c>
-      <c r="J32" s="4">
+      <c r="K32" s="4">
         <v>0.64867209999999997</v>
       </c>
-      <c r="K32" s="4">
+      <c r="L32" s="4">
         <v>0.15472440944881891</v>
       </c>
-      <c r="L32" s="4">
+      <c r="M32" s="4">
         <v>0.10101251037412776</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1860,22 +1974,25 @@
         <v>6.0199999999999997E-2</v>
       </c>
       <c r="G33" s="4">
+        <v>0.37817396002160991</v>
+      </c>
+      <c r="H33" s="4">
         <v>1.1382673267326699</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>0.26</v>
       </c>
-      <c r="J33" s="4">
+      <c r="K33" s="4">
         <v>0.4673833</v>
       </c>
-      <c r="K33" s="4">
+      <c r="L33" s="4">
         <v>0.15354330708661418</v>
       </c>
-      <c r="L33" s="4">
+      <c r="M33" s="4">
         <v>0.104</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1895,22 +2012,25 @@
         <v>6.3299999999999995E-2</v>
       </c>
       <c r="G34" s="4">
+        <v>0.28309022150189084</v>
+      </c>
+      <c r="H34" s="4">
         <v>0.884571428571434</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0.46</v>
       </c>
-      <c r="J34" s="4">
+      <c r="K34" s="4">
         <v>0.474937</v>
       </c>
-      <c r="K34" s="4">
+      <c r="L34" s="4">
         <v>0.16023622047244096</v>
       </c>
-      <c r="L34" s="4">
+      <c r="M34" s="4">
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1930,22 +2050,25 @@
         <v>7.9799999999999996E-2</v>
       </c>
       <c r="G35" s="4">
+        <v>0.11021069692058347</v>
+      </c>
+      <c r="H35" s="4">
         <v>1.06910869565217</v>
       </c>
-      <c r="I35" s="4">
+      <c r="J35" s="4">
         <v>0.60499999999999998</v>
       </c>
-      <c r="J35" s="4">
+      <c r="K35" s="4">
         <v>0.56558140000000001</v>
       </c>
-      <c r="K35" s="4">
+      <c r="L35" s="4">
         <v>0.11850393700787401</v>
       </c>
-      <c r="L35" s="4">
+      <c r="M35" s="4">
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1965,22 +2088,25 @@
         <v>7.0099999999999996E-2</v>
       </c>
       <c r="G36" s="4">
+        <v>0.32036736898973522</v>
+      </c>
+      <c r="H36" s="4">
         <v>0.93595617529880604</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>0.47</v>
       </c>
-      <c r="J36" s="4">
+      <c r="K36" s="4">
         <v>0.4673833</v>
       </c>
-      <c r="K36" s="4">
+      <c r="L36" s="4">
         <v>0.14212598425196851</v>
       </c>
-      <c r="L36" s="4">
+      <c r="M36" s="4">
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2000,22 +2126,25 @@
         <v>5.3400000000000003E-2</v>
       </c>
       <c r="G37" s="4">
+        <v>0.1237169097784981</v>
+      </c>
+      <c r="H37" s="4">
         <v>0.87760000000000005</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J37" s="4">
+      <c r="K37" s="4">
         <v>0.5882425</v>
       </c>
-      <c r="K37" s="4">
+      <c r="L37" s="4">
         <v>0.13346456692913386</v>
       </c>
-      <c r="L37" s="4">
+      <c r="M37" s="4">
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2035,25 +2164,28 @@
         <v>5.8599999999999999E-2</v>
       </c>
       <c r="G38" s="4">
+        <v>0.25553754727174499</v>
+      </c>
+      <c r="H38" s="4">
         <v>1.1080630630630599</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>6</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>0.36</v>
       </c>
-      <c r="J38" s="4">
+      <c r="K38" s="4">
         <v>0.54292030000000002</v>
       </c>
-      <c r="K38" s="4">
+      <c r="L38" s="4">
         <v>0.1673228346456693</v>
       </c>
-      <c r="L38" s="4">
+      <c r="M38" s="4">
         <v>0.10148699597777602</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2073,22 +2205,25 @@
         <v>6.8400000000000002E-2</v>
       </c>
       <c r="G39" s="4">
+        <v>0.43111831442463533</v>
+      </c>
+      <c r="H39" s="4">
         <v>1.07753164556962</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>0.47</v>
       </c>
-      <c r="J39" s="4">
+      <c r="K39" s="4">
         <v>0.4673833</v>
       </c>
-      <c r="K39" s="4">
+      <c r="L39" s="4">
         <v>0.15905511811023623</v>
       </c>
-      <c r="L39" s="4">
+      <c r="M39" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2108,18 +2243,21 @@
         <v>0.15390000000000001</v>
       </c>
       <c r="G40" s="4">
+        <v>0.4948676391139924</v>
+      </c>
+      <c r="H40" s="4">
         <v>1.12333333333333</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>0.26</v>
       </c>
-      <c r="J40" s="4">
+      <c r="K40" s="4">
         <v>0.4673833</v>
       </c>
-      <c r="K40" s="4"/>
       <c r="L40" s="4"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M40" s="4"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2139,25 +2277,28 @@
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="G41" s="4">
+        <v>0.21177741761210153</v>
+      </c>
+      <c r="H41" s="4">
         <v>0.93315508021390203</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="I41" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I41" s="6">
+      <c r="J41" s="6">
         <v>0.46</v>
       </c>
-      <c r="J41" s="4">
+      <c r="K41" s="4">
         <v>0.474937</v>
       </c>
-      <c r="K41" s="4">
+      <c r="L41" s="4">
         <v>0.14527559055118111</v>
       </c>
-      <c r="L41" s="4">
+      <c r="M41" s="4">
         <v>0.104</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2177,22 +2318,25 @@
         <v>7.7700000000000005E-2</v>
       </c>
       <c r="G42" s="4">
+        <v>0.23770934629929769</v>
+      </c>
+      <c r="H42" s="4">
         <v>0.99818750000000001</v>
       </c>
-      <c r="I42" s="4">
+      <c r="J42" s="4">
         <v>0.60499999999999998</v>
       </c>
-      <c r="J42" s="4">
+      <c r="K42" s="4">
         <v>0.55047400000000002</v>
       </c>
-      <c r="K42" s="4">
+      <c r="L42" s="4">
         <v>0.12165354330708661</v>
       </c>
-      <c r="L42" s="4">
+      <c r="M42" s="4">
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2212,22 +2356,25 @@
         <v>5.6800000000000003E-2</v>
       </c>
       <c r="G43" s="4">
+        <v>0.22474338195569962</v>
+      </c>
+      <c r="H43" s="4">
         <v>0.85303763440860003</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>0.46</v>
       </c>
-      <c r="J43" s="4">
+      <c r="K43" s="4">
         <v>0.4673833</v>
       </c>
-      <c r="K43" s="4">
+      <c r="L43" s="4">
         <v>0.14409448818897638</v>
       </c>
-      <c r="L43" s="4">
+      <c r="M43" s="4">
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2247,25 +2394,28 @@
         <v>5.3900000000000003E-2</v>
       </c>
       <c r="G44" s="4">
+        <v>0.12479740680713128</v>
+      </c>
+      <c r="H44" s="4">
         <v>0.90491631799163097</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>0.47</v>
       </c>
-      <c r="J44" s="4">
+      <c r="K44" s="4">
         <v>0.52781290000000003</v>
       </c>
-      <c r="K44" s="4">
+      <c r="L44" s="4">
         <v>0.14606299212598425</v>
       </c>
-      <c r="L44" s="4">
+      <c r="M44" s="4">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="M44" s="4">
+      <c r="N44" s="4">
         <v>2.1495071510795983E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2285,25 +2435,28 @@
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="G45" s="4">
+        <v>0.27390599675850891</v>
+      </c>
+      <c r="H45" s="4">
         <v>1.07424778761061</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>18</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>0.36</v>
       </c>
-      <c r="J45" s="4">
+      <c r="K45" s="4">
         <v>0.51270550000000004</v>
       </c>
-      <c r="K45" s="4">
+      <c r="L45" s="4">
         <v>0.15236220472440945</v>
       </c>
-      <c r="L45" s="4">
+      <c r="M45" s="4">
         <v>0.10071295241200602</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2323,18 +2476,21 @@
         <v>0.1066</v>
       </c>
       <c r="G46" s="4">
+        <v>0.18854673149648837</v>
+      </c>
+      <c r="H46" s="4">
         <v>1.06</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>0.26</v>
       </c>
-      <c r="J46" s="4">
+      <c r="K46" s="4">
         <v>0.4673833</v>
       </c>
-      <c r="K46" s="4"/>
       <c r="L46" s="4"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="4"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2354,25 +2510,28 @@
         <v>6.8599999999999994E-2</v>
       </c>
       <c r="G47" s="4">
+        <v>0.2025931928687196</v>
+      </c>
+      <c r="H47" s="4">
         <v>0.97886292834890798</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>19</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>0.47</v>
       </c>
-      <c r="J47" s="4">
+      <c r="K47" s="4">
         <v>0.48249069999999999</v>
       </c>
-      <c r="K47" s="4">
+      <c r="L47" s="4">
         <v>0.15748031496062992</v>
       </c>
-      <c r="L47" s="4">
+      <c r="M47" s="4">
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2392,22 +2551,25 @@
         <v>4.7100000000000003E-2</v>
       </c>
       <c r="G48" s="4">
+        <v>0.41707185305240407</v>
+      </c>
+      <c r="H48" s="4">
         <v>1.1595070422535101</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>0.36</v>
       </c>
-      <c r="J48" s="4">
+      <c r="K48" s="4">
         <v>0.56558140000000001</v>
       </c>
-      <c r="K48" s="4">
+      <c r="L48" s="4">
         <v>0.18543307086614175</v>
       </c>
-      <c r="L48" s="4">
+      <c r="M48" s="4">
         <v>9.8855017374080478E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2427,22 +2589,25 @@
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="G49" s="4">
+        <v>0.12695840086439761</v>
+      </c>
+      <c r="H49" s="4">
         <v>1.00439999999999</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>0.47</v>
       </c>
-      <c r="J49" s="4">
+      <c r="K49" s="4">
         <v>0.4673833</v>
       </c>
-      <c r="K49" s="4">
+      <c r="L49" s="4">
         <v>0.15354330708661418</v>
       </c>
-      <c r="L49" s="4">
+      <c r="M49" s="4">
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2462,22 +2627,25 @@
         <v>7.3300000000000004E-2</v>
       </c>
       <c r="G50" s="4">
+        <v>0.23987034035656402</v>
+      </c>
+      <c r="H50" s="4">
         <v>1.0709574468084999</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>0.66</v>
       </c>
-      <c r="J50" s="4">
+      <c r="K50" s="4">
         <v>0.56558140000000001</v>
       </c>
-      <c r="K50" s="4">
+      <c r="L50" s="4">
         <v>0.12913385826771653</v>
       </c>
-      <c r="L50" s="4">
+      <c r="M50" s="4">
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -2497,31 +2665,36 @@
         <v>6.7100000000000007E-2</v>
       </c>
       <c r="G51" s="4">
+        <v>0.22474338195569962</v>
+      </c>
+      <c r="H51" s="4">
         <v>1.0227906976744101</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>0.36</v>
       </c>
-      <c r="J51" s="4">
+      <c r="K51" s="4">
         <v>0.48249069999999999</v>
       </c>
-      <c r="K51" s="4">
+      <c r="L51" s="4">
         <v>0.13346456692913386</v>
       </c>
-      <c r="L51" s="4">
+      <c r="M51" s="4">
         <v>9.5922391195530504E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F53" s="3"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
@@ -2677,8 +2850,8 @@
       <c r="B119" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N3:P26">
-    <sortCondition ref="P3:P26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O3:Q26">
+    <sortCondition ref="Q3:Q26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/state_scenarios_for_import.xlsx
+++ b/state_scenarios_for_import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daltonwstewart/Documents/Code/BLocS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62D6A34-FB7D-4449-9F97-D02CD8EE565A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A4C695-1E0F-D049-8295-3684E13A2A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{163DA801-9318-4945-BD14-C5631C7A2B18}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{163DA801-9318-4945-BD14-C5631C7A2B18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
